--- a/Data/Status.xlsx
+++ b/Data/Status.xlsx
@@ -44,7 +44,7 @@
     <t xml:space="preserve">Statistics</t>
   </si>
   <si>
-    <t xml:space="preserve">Health Informatics and Analytics Vocabulary</t>
+    <t xml:space="preserve">Health Informatics</t>
   </si>
 </sst>
 </file>
